--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -683,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02127868133585253</v>
+        <v>0.02137264465530153</v>
       </c>
       <c r="D2">
-        <v>0.02186888239525242</v>
+        <v>0.03596467429554306</v>
       </c>
       <c r="E2">
-        <v>0.0003473666890070337</v>
+        <v>0.00423215505102692</v>
       </c>
       <c r="F2">
-        <v>9.65552775511469E-08</v>
+        <v>1.551726171777901E-05</v>
       </c>
       <c r="G2">
-        <v>4.88244533691784E-09</v>
+        <v>3.411557354104922E-05</v>
       </c>
       <c r="H2">
-        <v>0.0006497963710139221</v>
+        <v>0.005560685366990281</v>
       </c>
       <c r="I2">
-        <v>7.994798379251655E-05</v>
+        <v>0.004033296139978493</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.491384876179836E-11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02127868133585253</v>
+        <v>0.02137264465530153</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.002120189200762512</v>
+        <v>0.003664610293440118</v>
       </c>
       <c r="E3">
-        <v>0.0003482561796313011</v>
+        <v>0.002696502129224454</v>
       </c>
       <c r="F3">
-        <v>5.054926260683601E-06</v>
+        <v>0.0001523575539801314</v>
       </c>
       <c r="G3">
-        <v>1.739099664277433E-08</v>
+        <v>7.287232903552265E-06</v>
       </c>
       <c r="H3">
-        <v>6.570425736818208E-05</v>
+        <v>0.0005577210521019449</v>
       </c>
       <c r="I3">
-        <v>0.1639151249499031</v>
+        <v>0.1719411947263698</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.242872968049596E-12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02186888239525242</v>
+        <v>0.03596467429554306</v>
       </c>
       <c r="C4">
-        <v>0.002120189200762512</v>
+        <v>0.003664610293440118</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01520071824059532</v>
+        <v>0.01112372012711549</v>
       </c>
       <c r="F4">
-        <v>0.01357200080388465</v>
+        <v>0.01272238286799432</v>
       </c>
       <c r="G4">
-        <v>3.311172027187226E-05</v>
+        <v>0.001760689025062545</v>
       </c>
       <c r="H4">
-        <v>0.06171195510232996</v>
+        <v>0.0855900837232495</v>
       </c>
       <c r="I4">
-        <v>6.493320463163421E-05</v>
+        <v>0.003610530804192935</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.882050071344565E-11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003473666890070337</v>
+        <v>0.00423215505102692</v>
       </c>
       <c r="C5">
-        <v>0.0003482561796313011</v>
+        <v>0.002696502129224454</v>
       </c>
       <c r="D5">
-        <v>0.01520071824059532</v>
+        <v>0.01112372012711549</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5433387925818183</v>
+        <v>0.6496163373296979</v>
       </c>
       <c r="G5">
-        <v>0.3500271487143802</v>
+        <v>0.4690370762678189</v>
       </c>
       <c r="H5">
-        <v>0.7848580247620447</v>
+        <v>0.8239416967008026</v>
       </c>
       <c r="I5">
-        <v>1.317851138349369E-05</v>
+        <v>0.0009768522151367698</v>
       </c>
       <c r="J5">
-        <v>2.886579864025407E-15</v>
+        <v>4.37413006637577E-06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.65552775511469E-08</v>
+        <v>1.551726171777901E-05</v>
       </c>
       <c r="C6">
-        <v>5.054926260683601E-06</v>
+        <v>0.0001523575539801314</v>
       </c>
       <c r="D6">
-        <v>0.01357200080388465</v>
+        <v>0.01272238286799432</v>
       </c>
       <c r="E6">
-        <v>0.5433387925818183</v>
+        <v>0.6496163373296979</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06951344364920375</v>
+        <v>0.08980689798735786</v>
       </c>
       <c r="H6">
-        <v>0.9128417575596715</v>
+        <v>0.9184222965522681</v>
       </c>
       <c r="I6">
-        <v>3.009526916564198E-08</v>
+        <v>4.938113564323388E-05</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.109920231279204E-07</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.88244533691784E-09</v>
+        <v>3.411557354104922E-05</v>
       </c>
       <c r="C7">
-        <v>1.739099664277433E-08</v>
+        <v>7.287232903552265E-06</v>
       </c>
       <c r="D7">
-        <v>3.311172027187226E-05</v>
+        <v>0.001760689025062545</v>
       </c>
       <c r="E7">
-        <v>0.3500271487143802</v>
+        <v>0.4690370762678189</v>
       </c>
       <c r="F7">
-        <v>0.06951344364920375</v>
+        <v>0.08980689798735786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0183861816061075</v>
+        <v>0.02053841934637957</v>
       </c>
       <c r="I7">
-        <v>8.572009768670341E-11</v>
+        <v>1.118578073278087E-05</v>
       </c>
       <c r="J7">
-        <v>1.652900039061933E-12</v>
+        <v>8.649737659460754E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0006497963710139221</v>
+        <v>0.005560685366990281</v>
       </c>
       <c r="C8">
-        <v>6.570425736818208E-05</v>
+        <v>0.0005577210521019449</v>
       </c>
       <c r="D8">
-        <v>0.06171195510232996</v>
+        <v>0.0855900837232495</v>
       </c>
       <c r="E8">
-        <v>0.7848580247620447</v>
+        <v>0.8239416967008026</v>
       </c>
       <c r="F8">
-        <v>0.9128417575596715</v>
+        <v>0.9184222965522681</v>
       </c>
       <c r="G8">
-        <v>0.0183861816061075</v>
+        <v>0.02053841934637957</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3.436052267158374E-07</v>
+        <v>0.0002021295352028218</v>
       </c>
       <c r="J8">
-        <v>2.959854583650667E-13</v>
+        <v>1.852158119541869E-06</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.994798379251655E-05</v>
+        <v>0.004033296139978493</v>
       </c>
       <c r="C9">
-        <v>0.1639151249499031</v>
+        <v>0.1719411947263698</v>
       </c>
       <c r="D9">
-        <v>6.493320463163421E-05</v>
+        <v>0.003610530804192935</v>
       </c>
       <c r="E9">
-        <v>1.317851138349369E-05</v>
+        <v>0.0009768522151367698</v>
       </c>
       <c r="F9">
-        <v>3.009526916564198E-08</v>
+        <v>4.938113564323388E-05</v>
       </c>
       <c r="G9">
-        <v>8.572009768670341E-11</v>
+        <v>1.118578073278087E-05</v>
       </c>
       <c r="H9">
-        <v>3.436052267158374E-07</v>
+        <v>0.0002021295352028218</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.305507310206849E-10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.491384876179836E-11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>7.242872968049596E-12</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.882050071344565E-11</v>
       </c>
       <c r="E10">
-        <v>2.886579864025407E-15</v>
+        <v>4.37413006637577E-06</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.109920231279204E-07</v>
       </c>
       <c r="G10">
-        <v>1.652900039061933E-12</v>
+        <v>8.649737659460754E-07</v>
       </c>
       <c r="H10">
-        <v>2.959854583650667E-13</v>
+        <v>1.852158119541869E-06</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.305507310206849E-10</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.310603923952695</v>
+        <v>2.590404370765578</v>
       </c>
       <c r="D2">
-        <v>-2.300147016374361</v>
+        <v>-2.31991588709203</v>
       </c>
       <c r="E2">
-        <v>-3.603070011772449</v>
+        <v>-3.409500173225791</v>
       </c>
       <c r="F2">
-        <v>-5.416141226698064</v>
+        <v>-6.438593383659957</v>
       </c>
       <c r="G2">
-        <v>-5.960456821595489</v>
+        <v>-5.972667226209714</v>
       </c>
       <c r="H2">
-        <v>-3.432537717486279</v>
+        <v>-3.272278828574468</v>
       </c>
       <c r="I2">
-        <v>3.978911210879386</v>
+        <v>3.433698227646866</v>
       </c>
       <c r="J2">
-        <v>-12.75194840406611</v>
+        <v>-18.79564760716249</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.310603923952695</v>
+        <v>-2.590404370765578</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.089690109024429</v>
+        <v>-3.481912368932113</v>
       </c>
       <c r="E3">
-        <v>-3.602387329079826</v>
+        <v>-3.63641667631377</v>
       </c>
       <c r="F3">
-        <v>-4.614967858654444</v>
+        <v>-5.132333516325322</v>
       </c>
       <c r="G3">
-        <v>-5.733956527847578</v>
+        <v>-6.90316674856979</v>
       </c>
       <c r="H3">
-        <v>-4.026875883095581</v>
+        <v>-4.442167822176491</v>
       </c>
       <c r="I3">
-        <v>1.394161695433328</v>
+        <v>1.439685335625883</v>
       </c>
       <c r="J3">
-        <v>-11.74777749176116</v>
+        <v>-20.59111536364859</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.300147016374361</v>
+        <v>2.31991588709203</v>
       </c>
       <c r="C4">
-        <v>3.089690109024429</v>
+        <v>3.481912368932113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.436324687989776</v>
+        <v>-2.923038319617348</v>
       </c>
       <c r="F4">
-        <v>-2.477566284240062</v>
+        <v>-2.855056884245833</v>
       </c>
       <c r="G4">
-        <v>-4.190766317766298</v>
+        <v>-3.851971882875567</v>
       </c>
       <c r="H4">
-        <v>-1.872748951425656</v>
+        <v>-1.849615575723482</v>
       </c>
       <c r="I4">
-        <v>4.029746279679189</v>
+        <v>3.4893921035369</v>
       </c>
       <c r="J4">
-        <v>-11.70063148221158</v>
+        <v>-19.18996178529352</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.603070011772449</v>
+        <v>3.409500173225791</v>
       </c>
       <c r="C5">
-        <v>3.602387329079826</v>
+        <v>3.63641667631377</v>
       </c>
       <c r="D5">
-        <v>2.436324687989776</v>
+        <v>2.923038319617348</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6082065099066275</v>
+        <v>0.4642345206799753</v>
       </c>
       <c r="G5">
-        <v>-0.9354512532284163</v>
+        <v>-0.7442448084827762</v>
       </c>
       <c r="H5">
-        <v>0.2731468955147011</v>
+        <v>0.2266895502107374</v>
       </c>
       <c r="I5">
-        <v>4.402986029137106</v>
+        <v>4.152470992738388</v>
       </c>
       <c r="J5">
-        <v>-8.160918420199542</v>
+        <v>-7.227460767262928</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.416141226698064</v>
+        <v>6.438593383659957</v>
       </c>
       <c r="C6">
-        <v>4.614967858654444</v>
+        <v>5.132333516325322</v>
       </c>
       <c r="D6">
-        <v>2.477566284240062</v>
+        <v>2.855056884245833</v>
       </c>
       <c r="E6">
-        <v>-0.6082065099066275</v>
+        <v>-0.4642345206799753</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.819145431314869</v>
+        <v>-1.822482023640444</v>
       </c>
       <c r="H6">
-        <v>-0.1095126434940418</v>
+        <v>-0.1042852008596833</v>
       </c>
       <c r="I6">
-        <v>5.63388259155752</v>
+        <v>5.759867461460644</v>
       </c>
       <c r="J6">
-        <v>-9.204343144105822</v>
+        <v>-9.861546994881959</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.960456821595489</v>
+        <v>5.972667226209714</v>
       </c>
       <c r="C7">
-        <v>5.733956527847578</v>
+        <v>6.90316674856979</v>
       </c>
       <c r="D7">
-        <v>4.190766317766298</v>
+        <v>3.851971882875567</v>
       </c>
       <c r="E7">
-        <v>0.9354512532284163</v>
+        <v>0.7442448084827762</v>
       </c>
       <c r="F7">
-        <v>1.819145431314869</v>
+        <v>1.822482023640444</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.365845397231314</v>
+        <v>2.61086072006762</v>
       </c>
       <c r="I7">
-        <v>6.639130509810908</v>
+        <v>6.637565897076734</v>
       </c>
       <c r="J7">
-        <v>-7.252751487061126</v>
+        <v>-8.319983111453229</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.432537717486279</v>
+        <v>3.272278828574468</v>
       </c>
       <c r="C8">
-        <v>4.026875883095581</v>
+        <v>4.442167822176491</v>
       </c>
       <c r="D8">
-        <v>1.872748951425656</v>
+        <v>1.849615575723482</v>
       </c>
       <c r="E8">
-        <v>-0.2731468955147011</v>
+        <v>-0.2266895502107374</v>
       </c>
       <c r="F8">
-        <v>0.1095126434940418</v>
+        <v>0.1042852008596833</v>
       </c>
       <c r="G8">
-        <v>-2.365845397231314</v>
+        <v>-2.61086072006762</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.170501393200175</v>
+        <v>4.979308767983962</v>
       </c>
       <c r="J8">
-        <v>-7.507822585180364</v>
+        <v>-7.794274463586601</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.978911210879386</v>
+        <v>-3.433698227646866</v>
       </c>
       <c r="C9">
-        <v>-1.394161695433328</v>
+        <v>-1.439685335625883</v>
       </c>
       <c r="D9">
-        <v>-4.029746279679189</v>
+        <v>-3.4893921035369</v>
       </c>
       <c r="E9">
-        <v>-4.402986029137106</v>
+        <v>-4.152470992738388</v>
       </c>
       <c r="F9">
-        <v>-5.63388259155752</v>
+        <v>-5.759867461460644</v>
       </c>
       <c r="G9">
-        <v>-6.639130509810908</v>
+        <v>-6.637565897076734</v>
       </c>
       <c r="H9">
-        <v>-5.170501393200175</v>
+        <v>-4.979308767983962</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-12.60741046420655</v>
+        <v>-14.59514854873765</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.75194840406611</v>
+        <v>18.79564760716249</v>
       </c>
       <c r="C10">
-        <v>11.74777749176116</v>
+        <v>20.59111536364859</v>
       </c>
       <c r="D10">
-        <v>11.70063148221158</v>
+        <v>19.18996178529352</v>
       </c>
       <c r="E10">
-        <v>8.160918420199542</v>
+        <v>7.227460767262928</v>
       </c>
       <c r="F10">
-        <v>9.204343144105822</v>
+        <v>9.861546994881959</v>
       </c>
       <c r="G10">
-        <v>7.252751487061126</v>
+        <v>8.319983111453229</v>
       </c>
       <c r="H10">
-        <v>7.507822585180364</v>
+        <v>7.794274463586601</v>
       </c>
       <c r="I10">
-        <v>12.60741046420655</v>
+        <v>14.59514854873765</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.6266411458939485</v>
@@ -1457,82 +1457,82 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>0.6615292813969161</v>
+        <v>0.6404604772955071</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>62.5</v>
+        <v>37.5</v>
       </c>
       <c r="F4">
-        <v>0.6404604772955071</v>
+        <v>0.6615292813969161</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.6791407632310854</v>
+        <v>0.7240299305229702</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.5</v>
       </c>
       <c r="F6">
-        <v>0.7240299305229702</v>
+        <v>0.6791407632310854</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>4</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
       </c>
       <c r="E8">
         <v>12.5</v>
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>12.5</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -532,22 +532,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -625,7 +625,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -721,19 +721,19 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02137264465530153</v>
+        <v>0.1007280039229959</v>
       </c>
       <c r="D2">
-        <v>0.03596467429554306</v>
+        <v>0.002212936074142302</v>
       </c>
       <c r="E2">
-        <v>0.00423215505102692</v>
+        <v>0.0002334920432487397</v>
       </c>
       <c r="F2">
-        <v>1.551726171777901E-05</v>
+        <v>3.77058828604504E-10</v>
       </c>
       <c r="G2">
-        <v>3.411557354104922E-05</v>
+        <v>1.875002486606547E-08</v>
       </c>
       <c r="H2">
-        <v>0.005560685366990281</v>
+        <v>1.656907786307116E-06</v>
       </c>
       <c r="I2">
-        <v>0.004033296139978493</v>
+        <v>0.01974860024188141</v>
       </c>
       <c r="J2">
-        <v>2.491384876179836E-11</v>
+        <v>4.078794635375971E-09</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02137264465530153</v>
+        <v>0.1007280039229959</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.003664610293440118</v>
+        <v>0.0021465315493987</v>
       </c>
       <c r="E3">
-        <v>0.002696502129224454</v>
+        <v>0.0005142830107500718</v>
       </c>
       <c r="F3">
-        <v>0.0001523575539801314</v>
+        <v>2.781631880388602E-08</v>
       </c>
       <c r="G3">
-        <v>7.287232903552265E-06</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="H3">
-        <v>0.0005577210521019449</v>
+        <v>4.174438572590589E-14</v>
       </c>
       <c r="I3">
-        <v>0.1719411947263698</v>
+        <v>0.1164629630055014</v>
       </c>
       <c r="J3">
-        <v>7.242872968049596E-12</v>
+        <v>2.940301460085948E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03596467429554306</v>
+        <v>0.002212936074142302</v>
       </c>
       <c r="C4">
-        <v>0.003664610293440118</v>
+        <v>0.0021465315493987</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01112372012711549</v>
+        <v>2.255315087351661E-06</v>
       </c>
       <c r="F4">
-        <v>0.01272238286799432</v>
+        <v>0.004428726132310379</v>
       </c>
       <c r="G4">
-        <v>0.001760689025062545</v>
+        <v>0.0005215467091965742</v>
       </c>
       <c r="H4">
-        <v>0.0855900837232495</v>
+        <v>0.0325046591986724</v>
       </c>
       <c r="I4">
-        <v>0.003610530804192935</v>
+        <v>0.0007888785415419708</v>
       </c>
       <c r="J4">
-        <v>1.882050071344565E-11</v>
+        <v>0.08069216551790936</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00423215505102692</v>
+        <v>0.0002334920432487397</v>
       </c>
       <c r="C5">
-        <v>0.002696502129224454</v>
+        <v>0.0005142830107500718</v>
       </c>
       <c r="D5">
-        <v>0.01112372012711549</v>
+        <v>2.255315087351661E-06</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6496163373296979</v>
+        <v>0.08185894527685988</v>
       </c>
       <c r="G5">
-        <v>0.4690370762678189</v>
+        <v>0.00943723131549179</v>
       </c>
       <c r="H5">
-        <v>0.8239416967008026</v>
+        <v>0.2454410867063497</v>
       </c>
       <c r="I5">
-        <v>0.0009768522151367698</v>
+        <v>0.0002807596196738871</v>
       </c>
       <c r="J5">
-        <v>4.37413006637577E-06</v>
+        <v>0.6196805654505815</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.551726171777901E-05</v>
+        <v>3.77058828604504E-10</v>
       </c>
       <c r="C6">
-        <v>0.0001523575539801314</v>
+        <v>2.781631880388602E-08</v>
       </c>
       <c r="D6">
-        <v>0.01272238286799432</v>
+        <v>0.004428726132310379</v>
       </c>
       <c r="E6">
-        <v>0.6496163373296979</v>
+        <v>0.08185894527685988</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08980689798735786</v>
+        <v>0.06061751757412348</v>
       </c>
       <c r="H6">
-        <v>0.9184222965522681</v>
+        <v>0.7933920167150192</v>
       </c>
       <c r="I6">
-        <v>4.938113564323388E-05</v>
+        <v>1.038791126006799E-06</v>
       </c>
       <c r="J6">
-        <v>1.109920231279204E-07</v>
+        <v>0.1085765567014574</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.411557354104922E-05</v>
+        <v>1.875002486606547E-08</v>
       </c>
       <c r="C7">
-        <v>7.287232903552265E-06</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="D7">
-        <v>0.001760689025062545</v>
+        <v>0.0005215467091965742</v>
       </c>
       <c r="E7">
-        <v>0.4690370762678189</v>
+        <v>0.00943723131549179</v>
       </c>
       <c r="F7">
-        <v>0.08980689798735786</v>
+        <v>0.06061751757412348</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.02053841934637957</v>
+        <v>0.0003447599711348115</v>
       </c>
       <c r="I7">
-        <v>1.118578073278087E-05</v>
+        <v>4.236500039667135E-11</v>
       </c>
       <c r="J7">
-        <v>8.649737659460754E-07</v>
+        <v>0.001809754032368494</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005560685366990281</v>
+        <v>1.656907786307116E-06</v>
       </c>
       <c r="C8">
-        <v>0.0005577210521019449</v>
+        <v>4.174438572590589E-14</v>
       </c>
       <c r="D8">
-        <v>0.0855900837232495</v>
+        <v>0.0325046591986724</v>
       </c>
       <c r="E8">
-        <v>0.8239416967008026</v>
+        <v>0.2454410867063497</v>
       </c>
       <c r="F8">
-        <v>0.9184222965522681</v>
+        <v>0.7933920167150192</v>
       </c>
       <c r="G8">
-        <v>0.02053841934637957</v>
+        <v>0.0003447599711348115</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.0002021295352028218</v>
+        <v>2.262190434976219E-12</v>
       </c>
       <c r="J8">
-        <v>1.852158119541869E-06</v>
+        <v>0.1533001732335331</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.004033296139978493</v>
+        <v>0.01974860024188141</v>
       </c>
       <c r="C9">
-        <v>0.1719411947263698</v>
+        <v>0.1164629630055014</v>
       </c>
       <c r="D9">
-        <v>0.003610530804192935</v>
+        <v>0.0007888785415419708</v>
       </c>
       <c r="E9">
-        <v>0.0009768522151367698</v>
+        <v>0.0002807596196738871</v>
       </c>
       <c r="F9">
-        <v>4.938113564323388E-05</v>
+        <v>1.038791126006799E-06</v>
       </c>
       <c r="G9">
-        <v>1.118578073278087E-05</v>
+        <v>4.236500039667135E-11</v>
       </c>
       <c r="H9">
-        <v>0.0002021295352028218</v>
+        <v>2.262190434976219E-12</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7.305507310206849E-10</v>
+        <v>2.268204153388353E-07</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.491384876179836E-11</v>
+        <v>4.078794635375971E-09</v>
       </c>
       <c r="C10">
-        <v>7.242872968049596E-12</v>
+        <v>2.940301460085948E-07</v>
       </c>
       <c r="D10">
-        <v>1.882050071344565E-11</v>
+        <v>0.08069216551790936</v>
       </c>
       <c r="E10">
-        <v>4.37413006637577E-06</v>
+        <v>0.6196805654505815</v>
       </c>
       <c r="F10">
-        <v>1.109920231279204E-07</v>
+        <v>0.1085765567014574</v>
       </c>
       <c r="G10">
-        <v>8.649737659460754E-07</v>
+        <v>0.001809754032368494</v>
       </c>
       <c r="H10">
-        <v>1.852158119541869E-06</v>
+        <v>0.1533001732335331</v>
       </c>
       <c r="I10">
-        <v>7.305507310206849E-10</v>
+        <v>2.268204153388353E-07</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.590404370765578</v>
+        <v>1.713236405936791</v>
       </c>
       <c r="D2">
-        <v>-2.31991588709203</v>
+        <v>-3.462786169766276</v>
       </c>
       <c r="E2">
-        <v>-3.409500173225791</v>
+        <v>-4.388620479081403</v>
       </c>
       <c r="F2">
-        <v>-6.438593383659957</v>
+        <v>-10.65328106479491</v>
       </c>
       <c r="G2">
-        <v>-5.972667226209714</v>
+        <v>-8.562843601681204</v>
       </c>
       <c r="H2">
-        <v>-3.272278828574468</v>
+        <v>-6.468177331578615</v>
       </c>
       <c r="I2">
-        <v>3.433698227646866</v>
+        <v>2.514107300143281</v>
       </c>
       <c r="J2">
-        <v>-18.79564760716249</v>
+        <v>-9.34518974905945</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.590404370765578</v>
+        <v>-1.713236405936791</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.481912368932113</v>
+        <v>-3.475505282731876</v>
       </c>
       <c r="E3">
-        <v>-3.63641667631377</v>
+        <v>-4.065356540509606</v>
       </c>
       <c r="F3">
-        <v>-5.132333516325322</v>
+        <v>-8.366937890992986</v>
       </c>
       <c r="G3">
-        <v>-6.90316674856979</v>
+        <v>-20.95624289306821</v>
       </c>
       <c r="H3">
-        <v>-4.442167822176491</v>
+        <v>-16.93614297155422</v>
       </c>
       <c r="I3">
-        <v>1.439685335625883</v>
+        <v>1.634124132234697</v>
       </c>
       <c r="J3">
-        <v>-20.59111536364859</v>
+        <v>-7.24466196409424</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.31991588709203</v>
+        <v>3.462786169766276</v>
       </c>
       <c r="C4">
-        <v>3.481912368932113</v>
+        <v>3.475505282731876</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.923038319617348</v>
+        <v>-6.333206590699204</v>
       </c>
       <c r="F4">
-        <v>-2.855056884245833</v>
+        <v>-3.170539043177349</v>
       </c>
       <c r="G4">
-        <v>-3.851971882875567</v>
+        <v>-4.059607793208896</v>
       </c>
       <c r="H4">
-        <v>-1.849615575723482</v>
+        <v>-2.28224133090854</v>
       </c>
       <c r="I4">
-        <v>3.4893921035369</v>
+        <v>3.889749413118957</v>
       </c>
       <c r="J4">
-        <v>-19.18996178529352</v>
+        <v>-1.830917153467895</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.409500173225791</v>
+        <v>4.388620479081403</v>
       </c>
       <c r="C5">
-        <v>3.63641667631377</v>
+        <v>4.065356540509606</v>
       </c>
       <c r="D5">
-        <v>2.923038319617348</v>
+        <v>6.333206590699204</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4642345206799753</v>
+        <v>-1.823407771808962</v>
       </c>
       <c r="G5">
-        <v>-0.7442448084827762</v>
+        <v>-2.844175648901395</v>
       </c>
       <c r="H5">
-        <v>0.2266895502107374</v>
+        <v>-1.193355107561215</v>
       </c>
       <c r="I5">
-        <v>4.152470992738388</v>
+        <v>4.31317982865632</v>
       </c>
       <c r="J5">
-        <v>-7.227460767262928</v>
+        <v>-0.5034082958605589</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.438593383659957</v>
+        <v>10.65328106479491</v>
       </c>
       <c r="C6">
-        <v>5.132333516325322</v>
+        <v>8.366937890992986</v>
       </c>
       <c r="D6">
-        <v>2.855056884245833</v>
+        <v>3.170539043177349</v>
       </c>
       <c r="E6">
-        <v>-0.4642345206799753</v>
+        <v>1.823407771808962</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.822482023640444</v>
+        <v>-1.9777477714477</v>
       </c>
       <c r="H6">
-        <v>-0.1042852008596833</v>
+        <v>0.2651111895777095</v>
       </c>
       <c r="I6">
-        <v>5.759867461460644</v>
+        <v>6.674463146604029</v>
       </c>
       <c r="J6">
-        <v>-9.861546994881959</v>
+        <v>1.672562135859693</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.972667226209714</v>
+        <v>8.562843601681204</v>
       </c>
       <c r="C7">
-        <v>6.90316674856979</v>
+        <v>20.95624289306821</v>
       </c>
       <c r="D7">
-        <v>3.851971882875567</v>
+        <v>4.059607793208896</v>
       </c>
       <c r="E7">
-        <v>0.7442448084827762</v>
+        <v>2.844175648901395</v>
       </c>
       <c r="F7">
-        <v>1.822482023640444</v>
+        <v>1.9777477714477</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.61086072006762</v>
+        <v>4.229141684277311</v>
       </c>
       <c r="I7">
-        <v>6.637565897076734</v>
+        <v>11.96033049766493</v>
       </c>
       <c r="J7">
-        <v>-8.319983111453229</v>
+        <v>3.546605924668025</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.272278828574468</v>
+        <v>6.468177331578615</v>
       </c>
       <c r="C8">
-        <v>4.442167822176491</v>
+        <v>16.93614297155422</v>
       </c>
       <c r="D8">
-        <v>1.849615575723482</v>
+        <v>2.28224133090854</v>
       </c>
       <c r="E8">
-        <v>-0.2266895502107374</v>
+        <v>1.193355107561215</v>
       </c>
       <c r="F8">
-        <v>0.1042852008596833</v>
+        <v>-0.2651111895777095</v>
       </c>
       <c r="G8">
-        <v>-2.61086072006762</v>
+        <v>-4.229141684277311</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.979308767983962</v>
+        <v>13.8964633164371</v>
       </c>
       <c r="J8">
-        <v>-7.794274463586601</v>
+        <v>1.479064218458259</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.433698227646866</v>
+        <v>-2.514107300143281</v>
       </c>
       <c r="C9">
-        <v>-1.439685335625883</v>
+        <v>-1.634124132234697</v>
       </c>
       <c r="D9">
-        <v>-3.4893921035369</v>
+        <v>-3.889749413118957</v>
       </c>
       <c r="E9">
-        <v>-4.152470992738388</v>
+        <v>-4.31317982865632</v>
       </c>
       <c r="F9">
-        <v>-5.759867461460644</v>
+        <v>-6.674463146604029</v>
       </c>
       <c r="G9">
-        <v>-6.637565897076734</v>
+        <v>-11.96033049766493</v>
       </c>
       <c r="H9">
-        <v>-4.979308767983962</v>
+        <v>-13.8964633164371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-14.59514854873765</v>
+        <v>-7.364361262590232</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.79564760716249</v>
+        <v>9.34518974905945</v>
       </c>
       <c r="C10">
-        <v>20.59111536364859</v>
+        <v>7.24466196409424</v>
       </c>
       <c r="D10">
-        <v>19.18996178529352</v>
+        <v>1.830917153467895</v>
       </c>
       <c r="E10">
-        <v>7.227460767262928</v>
+        <v>0.5034082958605589</v>
       </c>
       <c r="F10">
-        <v>9.861546994881959</v>
+        <v>-1.672562135859693</v>
       </c>
       <c r="G10">
-        <v>8.319983111453229</v>
+        <v>-3.546605924668025</v>
       </c>
       <c r="H10">
-        <v>7.794274463586601</v>
+        <v>-1.479064218458259</v>
       </c>
       <c r="I10">
-        <v>14.59514854873765</v>
+        <v>7.364361262590232</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,99 +1440,99 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.6266411458939485</v>
+        <v>0.605961835027105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.6404604772955071</v>
+        <v>0.6296112109136516</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>0.6615292813969161</v>
+        <v>0.6172670560654613</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.7240299305229702</v>
+        <v>0.6561263639434662</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>12.5</v>
       </c>
       <c r="F6">
-        <v>0.6791407632310854</v>
+        <v>0.6832604754996421</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,59 +1540,59 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7156707932082101</v>
+        <v>0.6859773021489359</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7447845475734969</v>
+        <v>0.6676294084403145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7175246340748288</v>
+        <v>0.7035325516363372</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8972757458314203</v>
+        <v>0.6725238171670227</v>
       </c>
     </row>
   </sheetData>
